--- a/Result/ARIMA/Manufacturing/JPN.xlsx
+++ b/Result/ARIMA/Manufacturing/JPN.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -677,6 +677,16 @@
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B24" t="n">
+        <v>20.2880385682684</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -721,72 +731,72 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>20.46247037584918</v>
+        <v>19.92411138863997</v>
       </c>
       <c r="C2" t="n">
-        <v>18.88803070050783</v>
+        <v>18.52887541234567</v>
       </c>
       <c r="D2" t="n">
-        <v>22.03691005119052</v>
+        <v>21.31934736493427</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>20.46247037584918</v>
+        <v>19.76690409016057</v>
       </c>
       <c r="C3" t="n">
-        <v>18.23587643391562</v>
+        <v>18.15888250484619</v>
       </c>
       <c r="D3" t="n">
-        <v>22.68906431778273</v>
+        <v>21.37492567547496</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>20.46247037584918</v>
+        <v>19.60969679168117</v>
       </c>
       <c r="C4" t="n">
-        <v>17.73546086482406</v>
+        <v>17.81392859725071</v>
       </c>
       <c r="D4" t="n">
-        <v>23.1894798868743</v>
+        <v>21.40546498611164</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>20.46247037584918</v>
+        <v>19.45248949320177</v>
       </c>
       <c r="C5" t="n">
-        <v>17.31359102532022</v>
+        <v>17.4868258908987</v>
       </c>
       <c r="D5" t="n">
-        <v>23.61134972637814</v>
+        <v>21.41815309550485</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>20.46247037584918</v>
+        <v>19.29528219472238</v>
       </c>
       <c r="C6" t="n">
-        <v>16.94191623549656</v>
+        <v>17.17328233922988</v>
       </c>
       <c r="D6" t="n">
-        <v>23.98302451620179</v>
+        <v>21.41728205021487</v>
       </c>
     </row>
   </sheetData>
@@ -800,7 +810,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1099,6 +1109,16 @@
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B29" t="n">
+        <v>19.13380404390768</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1146,13 +1166,13 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>19.74777174028171</v>
+        <v>19.16860415093007</v>
       </c>
       <c r="C2" t="n">
-        <v>18.30704436788389</v>
+        <v>17.85812538881038</v>
       </c>
       <c r="D2" t="n">
-        <v>21.18849911267953</v>
+        <v>20.47908291304977</v>
       </c>
     </row>
     <row r="3">
@@ -1160,13 +1180,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>19.74777174028171</v>
+        <v>19.01285773956612</v>
       </c>
       <c r="C3" t="n">
-        <v>17.7102755506219</v>
+        <v>17.45121557960743</v>
       </c>
       <c r="D3" t="n">
-        <v>21.78526792994152</v>
+        <v>20.57449989952481</v>
       </c>
     </row>
     <row r="4">
@@ -1174,13 +1194,13 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>19.74777174028171</v>
+        <v>18.85711132820217</v>
       </c>
       <c r="C4" t="n">
-        <v>17.25235873154345</v>
+        <v>17.07944491248911</v>
       </c>
       <c r="D4" t="n">
-        <v>22.24318474901997</v>
+        <v>20.63477774391523</v>
       </c>
     </row>
     <row r="5">
@@ -1188,13 +1208,13 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>19.74777174028171</v>
+        <v>18.70136491683821</v>
       </c>
       <c r="C5" t="n">
-        <v>16.86631699562892</v>
+        <v>16.73122037002247</v>
       </c>
       <c r="D5" t="n">
-        <v>22.6292264849345</v>
+        <v>20.67150946365395</v>
       </c>
     </row>
     <row r="6">
@@ -1202,13 +1222,13 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>19.74777174028171</v>
+        <v>18.54561850547426</v>
       </c>
       <c r="C6" t="n">
-        <v>16.52620739872589</v>
+        <v>16.40019519406425</v>
       </c>
       <c r="D6" t="n">
-        <v>22.96933608183753</v>
+        <v>20.69104181688427</v>
       </c>
     </row>
   </sheetData>

--- a/Result/ARIMA/Manufacturing/JPN.xlsx
+++ b/Result/ARIMA/Manufacturing/JPN.xlsx
@@ -463,7 +463,7 @@
         <v>1994</v>
       </c>
       <c r="B2" t="n">
-        <v>23.46921539563932</v>
+        <v>-0.1572072984793992</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -473,7 +473,7 @@
         <v>1995</v>
       </c>
       <c r="B3" t="n">
-        <v>23.47176597231475</v>
+        <v>23.31200298421016</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -483,7 +483,7 @@
         <v>1996</v>
       </c>
       <c r="B4" t="n">
-        <v>23.36115643732072</v>
+        <v>23.2568557127425</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -493,7 +493,7 @@
         <v>1997</v>
       </c>
       <c r="B5" t="n">
-        <v>23.35048737419174</v>
+        <v>23.16062652841528</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -503,7 +503,7 @@
         <v>1998</v>
       </c>
       <c r="B6" t="n">
-        <v>22.83664375633507</v>
+        <v>23.11260328765611</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -513,7 +513,7 @@
         <v>1999</v>
       </c>
       <c r="B7" t="n">
-        <v>22.40186384416154</v>
+        <v>22.79717727268367</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -523,7 +523,7 @@
         <v>2000</v>
       </c>
       <c r="B8" t="n">
-        <v>22.45220880818845</v>
+        <v>22.41344572282036</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -533,7 +533,7 @@
         <v>2001</v>
       </c>
       <c r="B9" t="n">
-        <v>21.11971716938407</v>
+        <v>22.2784483867644</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -543,7 +543,7 @@
         <v>2002</v>
       </c>
       <c r="B10" t="n">
-        <v>20.71470204605068</v>
+        <v>21.45733869698017</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -553,7 +553,7 @@
         <v>2003</v>
       </c>
       <c r="B11" t="n">
-        <v>20.91713129374546</v>
+        <v>20.87463444728024</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -563,7 +563,7 @@
         <v>2004</v>
       </c>
       <c r="B12" t="n">
-        <v>21.12059121924424</v>
+        <v>20.74177588995353</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -573,7 +573,7 @@
         <v>2005</v>
       </c>
       <c r="B13" t="n">
-        <v>21.42337238571039</v>
+        <v>20.80161235211317</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>2006</v>
       </c>
       <c r="B14" t="n">
-        <v>21.3992856851895</v>
+        <v>21.00064494873929</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -593,7 +593,7 @@
         <v>2007</v>
       </c>
       <c r="B15" t="n">
-        <v>21.87550588124908</v>
+        <v>21.07184045188594</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -603,7 +603,7 @@
         <v>2008</v>
       </c>
       <c r="B16" t="n">
-        <v>21.27403122026707</v>
+        <v>21.37509646969307</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -613,7 +613,7 @@
         <v>2009</v>
       </c>
       <c r="B17" t="n">
-        <v>19.04768350970545</v>
+        <v>21.1599834330719</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -623,7 +623,7 @@
         <v>2010</v>
       </c>
       <c r="B18" t="n">
-        <v>20.76620089862018</v>
+        <v>19.79252546058449</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -633,7 +633,7 @@
         <v>2011</v>
       </c>
       <c r="B19" t="n">
-        <v>19.53555430517587</v>
+        <v>20.19318939152069</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -643,7 +643,7 @@
         <v>2012</v>
       </c>
       <c r="B20" t="n">
-        <v>19.66670842701939</v>
+        <v>19.65918744485145</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -653,7 +653,7 @@
         <v>2013</v>
       </c>
       <c r="B21" t="n">
-        <v>19.32903165437587</v>
+        <v>19.5062893231311</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -663,7 +663,7 @@
         <v>2014</v>
       </c>
       <c r="B22" t="n">
-        <v>19.59360923342026</v>
+        <v>19.24752153567477</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -673,7 +673,7 @@
         <v>2015</v>
       </c>
       <c r="B23" t="n">
-        <v>20.46247037584918</v>
+        <v>19.28860656530033</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -683,7 +683,7 @@
         <v>2016</v>
       </c>
       <c r="B24" t="n">
-        <v>20.2880385682684</v>
+        <v>19.80396922347703</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -845,7 +845,7 @@
         <v>1994</v>
       </c>
       <c r="B2" t="n">
-        <v>23.46921539563932</v>
+        <v>-0.1557464113639517</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -855,7 +855,7 @@
         <v>1995</v>
       </c>
       <c r="B3" t="n">
-        <v>23.47176597231475</v>
+        <v>23.3134652677244</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -865,7 +865,7 @@
         <v>1996</v>
       </c>
       <c r="B4" t="n">
-        <v>23.36115643732072</v>
+        <v>23.2664529400967</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -875,7 +875,7 @@
         <v>1997</v>
       </c>
       <c r="B5" t="n">
-        <v>23.35048737419174</v>
+        <v>23.17253347678775</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -885,7 +885,7 @@
         <v>1998</v>
       </c>
       <c r="B6" t="n">
-        <v>22.83664375633507</v>
+        <v>23.13222517795666</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -895,7 +895,7 @@
         <v>1999</v>
       </c>
       <c r="B7" t="n">
-        <v>22.40186384416154</v>
+        <v>22.78488770183073</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -905,7 +905,7 @@
         <v>2000</v>
       </c>
       <c r="B8" t="n">
-        <v>22.45220880818845</v>
+        <v>22.38089578835293</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -915,7 +915,7 @@
         <v>2001</v>
       </c>
       <c r="B9" t="n">
-        <v>21.11971716938407</v>
+        <v>22.27136822539923</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -925,7 +925,7 @@
         <v>2002</v>
       </c>
       <c r="B10" t="n">
-        <v>20.71470204605068</v>
+        <v>21.36922367061542</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -935,7 +935,7 @@
         <v>2003</v>
       </c>
       <c r="B11" t="n">
-        <v>20.91713129374546</v>
+        <v>20.78927443152552</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -945,7 +945,7 @@
         <v>2004</v>
       </c>
       <c r="B12" t="n">
-        <v>21.12059121924424</v>
+        <v>20.71639348894494</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -955,7 +955,7 @@
         <v>2005</v>
       </c>
       <c r="B13" t="n">
-        <v>21.42337238571039</v>
+        <v>20.82261216670749</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -965,7 +965,7 @@
         <v>2006</v>
       </c>
       <c r="B14" t="n">
-        <v>21.3992856851895</v>
+        <v>21.05622520113417</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -975,7 +975,7 @@
         <v>2007</v>
       </c>
       <c r="B15" t="n">
-        <v>21.87550588124908</v>
+        <v>21.12282014279839</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -985,7 +985,7 @@
         <v>2008</v>
       </c>
       <c r="B16" t="n">
-        <v>21.27403122026707</v>
+        <v>21.45489781281199</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -995,7 +995,7 @@
         <v>2009</v>
       </c>
       <c r="B17" t="n">
-        <v>19.04768350970545</v>
+        <v>21.181929731297</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -1005,7 +1005,7 @@
         <v>2010</v>
       </c>
       <c r="B18" t="n">
-        <v>20.76620089862018</v>
+        <v>19.64295437152269</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -1015,7 +1015,7 @@
         <v>2011</v>
       </c>
       <c r="B19" t="n">
-        <v>19.53555430517587</v>
+        <v>20.21519665085629</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -1025,7 +1025,7 @@
         <v>2012</v>
       </c>
       <c r="B20" t="n">
-        <v>19.66670842701939</v>
+        <v>19.61896640140471</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -1035,7 +1035,7 @@
         <v>2013</v>
       </c>
       <c r="B21" t="n">
-        <v>19.32903165437587</v>
+        <v>19.49416213308774</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>2014</v>
       </c>
       <c r="B22" t="n">
-        <v>19.59360923342026</v>
+        <v>19.23139280369853</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -1055,7 +1055,7 @@
         <v>2015</v>
       </c>
       <c r="B23" t="n">
-        <v>20.46247037584918</v>
+        <v>19.31040292891043</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -1065,7 +1065,7 @@
         <v>2016</v>
       </c>
       <c r="B24" t="n">
-        <v>20.2880385682684</v>
+        <v>19.90132437011436</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -1075,7 +1075,7 @@
         <v>2017</v>
       </c>
       <c r="B25" t="n">
-        <v>20.43594606860216</v>
+        <v>19.99621177421012</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -1085,7 +1085,7 @@
         <v>2018</v>
       </c>
       <c r="B26" t="n">
-        <v>20.61976962533107</v>
+        <v>20.12546209820798</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -1095,7 +1095,7 @@
         <v>2019</v>
       </c>
       <c r="B27" t="n">
-        <v>20.05877621706484</v>
+        <v>20.29008194731416</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -1105,7 +1105,7 @@
         <v>2020</v>
       </c>
       <c r="B28" t="n">
-        <v>19.74777174028171</v>
+        <v>19.98442369411245</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -1115,7 +1115,7 @@
         <v>2021</v>
       </c>
       <c r="B29" t="n">
-        <v>19.13380404390768</v>
+        <v>19.67530049335799</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
